--- a/minimal-example/ig/StructureDefinition-ActorPatient.xlsx
+++ b/minimal-example/ig/StructureDefinition-ActorPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T06:58:36+00:00</t>
+    <t>2025-05-06T07:03:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,7 +253,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS}
+    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1}
 </t>
   </si>
   <si>
@@ -587,7 +587,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.94140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
